--- a/狗子.xlsx
+++ b/狗子.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
   <si>
     <t>洗澡</t>
   </si>
@@ -29,23 +29,144 @@
   <si>
     <t>发情</t>
   </si>
+  <si>
+    <t>9.27(大宠爱)</t>
+  </si>
+  <si>
+    <t>11.1(大宠爱)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -57,144 +178,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,6 +223,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -233,25 +247,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,37 +325,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,18 +355,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -329,24 +367,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -359,37 +385,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,15 +402,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -423,15 +416,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -454,8 +438,37 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,164 +502,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1002,15 +1004,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.375" customWidth="1"/>
+    <col min="2" max="3" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1090,11 +1093,11 @@
       <c r="A9">
         <v>9.15</v>
       </c>
-      <c r="B9">
-        <v>9.27</v>
-      </c>
-      <c r="C9">
-        <v>9.27</v>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -1111,14 +1114,24 @@
       <c r="A12">
         <v>11.1</v>
       </c>
-      <c r="B12">
-        <v>11.1</v>
-      </c>
-      <c r="C12">
-        <v>11.1</v>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
       </c>
       <c r="D12">
         <v>11.28</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10">
+      <c r="J17" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/狗子.xlsx
+++ b/狗子.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9840"/>
+    <workbookView windowWidth="21600" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,10 +44,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -59,7 +59,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -73,8 +158,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -82,28 +182,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,92 +197,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,187 +211,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,6 +402,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -416,6 +455,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -438,67 +497,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,10 +510,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -522,133 +522,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1007,7 +1007,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1121,7 +1121,7 @@
         <v>5</v>
       </c>
       <c r="D12">
-        <v>11.28</v>
+        <v>11.27</v>
       </c>
     </row>
     <row r="13" spans="3:3">

--- a/狗子.xlsx
+++ b/狗子.xlsx
@@ -59,15 +59,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -88,9 +87,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,14 +102,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -119,16 +109,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,9 +125,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,6 +155,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -182,21 +180,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,13 +211,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,169 +385,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,17 +405,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -430,16 +424,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,6 +455,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -469,39 +502,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -510,145 +510,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1007,7 +1007,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>11.1</v>
+        <v>11.15</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -1124,7 +1124,13 @@
         <v>11.27</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>12.15</v>
+      </c>
+      <c r="B13">
+        <v>12.11</v>
+      </c>
       <c r="C13">
         <v>12.5</v>
       </c>

--- a/狗子.xlsx
+++ b/狗子.xlsx
@@ -396,7 +396,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -527,6 +527,14 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>1.27</v>
+      </c>
+      <c r="B15">
+        <v>1.29</v>
       </c>
     </row>
     <row r="17" spans="10:10" x14ac:dyDescent="0.15">

--- a/狗子.xlsx
+++ b/狗子.xlsx
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -565,6 +565,11 @@
       </c>
       <c r="C18">
         <v>4.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>5.13</v>
       </c>
     </row>
   </sheetData>

--- a/狗子.xlsx
+++ b/狗子.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitrepository\myWork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\生活\github\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1902514E-DC20-4C98-9A8C-BCE73943E336}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9765"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -59,6 +60,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -392,20 +394,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.375" customWidth="1"/>
-    <col min="2" max="3" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="9.36328125" customWidth="1"/>
+    <col min="2" max="3" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,7 +421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4.0999999999999996</v>
       </c>
@@ -430,7 +432,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6.1</v>
       </c>
@@ -441,7 +443,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>7.7</v>
       </c>
@@ -452,12 +454,12 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7.22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8.4</v>
       </c>
@@ -465,12 +467,12 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8.18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8.3000000000000007</v>
       </c>
@@ -478,7 +480,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9.15</v>
       </c>
@@ -489,17 +491,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10.4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10.210000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11.15</v>
       </c>
@@ -513,7 +515,7 @@
         <v>11.27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12.15</v>
       </c>
@@ -524,12 +526,12 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1.27</v>
       </c>
@@ -537,12 +539,12 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2.21</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3.16</v>
       </c>
@@ -556,7 +558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4.21</v>
       </c>
@@ -567,9 +569,17 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5.13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>7.31</v>
+      </c>
+      <c r="C21">
+        <v>8.1</v>
       </c>
     </row>
   </sheetData>
@@ -580,12 +590,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -594,12 +604,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
